--- a/pred_ohlcv/54_21/2020-01-22 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 APIS ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-19493694.33901773</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-18374549.54381773</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-18378150.54381773</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-18378150.54381773</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-16822914.28181773</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-16822051.47941773</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-17328906.19771773</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-18356944.49261773</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-19652706.55261772</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19606958.37521772</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-19036607.30921772</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-19831610.65571772</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-20697070.89591772</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-22092797.51511772</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-20259743.40261773</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-22134427.97431773</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-21113369.38491772</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-22619645.99371773</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-22615925.37811773</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-24009624.89941772</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-24006243.09351772</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-25326481.30381772</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-26938059.70661772</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-26240178.85091772</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-25148432.33351772</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-26764585.59721772</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-26775069.82461772</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-26775069.82461772</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-34775069.82461773</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-34774069.82461773</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-35191393.76591773</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-35190393.76591773</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-36044106.94391773</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-38971687.44831773</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-54818851.14821772</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-53435454.30581773</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-48894278.50301772</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-45541850.24201772</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-42426804.32861772</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-49281922.88371772</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-49281039.81191771</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-51964852.36791772</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-50706906.60701772</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-53369068.83281772</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-56070406.30871772</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-56533033.53631772</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 APIS ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>-18844034.01521773</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-19493694.33901773</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-18374549.54381773</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-17328906.19771773</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19606958.37521772</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-22092797.51511772</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-20259743.40261773</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-22134427.97431773</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-21113369.38491772</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-22619645.99371773</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-22615925.37811773</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-24009624.89941772</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-24006243.09351772</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-25326481.30381772</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-26938059.70661772</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-26240178.85091772</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-25148432.33351772</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-26764585.59721772</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-26775069.82461772</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-26775069.82461772</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-34775069.82461773</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-34774069.82461773</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-35191393.76591773</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-54818851.14821772</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-53435454.30581773</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-49281039.81191771</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-51964852.36791772</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-50706906.60701772</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-53369068.83281772</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-56070406.30871772</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-56533033.53631772</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
